--- a/analyses/inputs/Lebanon_input.xlsx
+++ b/analyses/inputs/Lebanon_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35168930-87B7-4DB9-8EF6-F3CB5755427B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2210B3-3194-4A0F-BB9A-A8A7D9E5AA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6210,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7073,8 +7073,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7608,24 +7608,24 @@
         <v>85</v>
       </c>
       <c r="C12" s="93">
-        <f>diarrhoea_1mo/26</f>
-        <v>0.12030588865605771</v>
+        <f>diarrhoea_1mo</f>
+        <v>3.1279531050575002</v>
       </c>
       <c r="D12" s="93">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>0.10810420306653845</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>2.8107092797299997</v>
       </c>
       <c r="E12" s="93">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.10810420306653845</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>2.8107092797299997</v>
       </c>
       <c r="F12" s="93">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>7.188145026192308E-2</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>1.86891770681</v>
       </c>
       <c r="G12" s="93">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.188145026192308E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.86891770681</v>
       </c>
       <c r="H12" s="94">
         <v>0</v>
@@ -12901,6 +12901,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12910,12 +12916,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21323,8 +21323,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21619,7 +21619,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21734,9 +21734,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/analyses/inputs/Lebanon_input.xlsx
+++ b/analyses/inputs/Lebanon_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2210B3-3194-4A0F-BB9A-A8A7D9E5AA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E91EF2-51A0-40B5-9E17-53910AE1E116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="13824" windowHeight="7176" tabRatio="961" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,18 @@
     <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
     <sheet name="Reference programs" sheetId="59" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
-    <sheet name="Programs impacted population" sheetId="62" r:id="rId14"/>
-    <sheet name="Program risk areas" sheetId="63" state="hidden" r:id="rId15"/>
-    <sheet name="Population risk areas" sheetId="64" state="hidden" r:id="rId16"/>
-    <sheet name="IYCF odds ratios" sheetId="65" state="hidden" r:id="rId17"/>
-    <sheet name="Birth outcome risks" sheetId="66" state="hidden" r:id="rId18"/>
-    <sheet name="Relative risks" sheetId="67" state="hidden" r:id="rId19"/>
-    <sheet name="Odds ratios" sheetId="68" state="hidden" r:id="rId20"/>
-    <sheet name="Programs birth outcomes" sheetId="69" state="hidden" r:id="rId21"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId22"/>
-    <sheet name="Programs wasting" sheetId="71" state="hidden" r:id="rId23"/>
-    <sheet name="Programs for children" sheetId="72" state="hidden" r:id="rId24"/>
+    <sheet name="Programs impacted population" sheetId="62" r:id="rId13"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
+    <sheet name="Program risk areas" sheetId="63" r:id="rId15"/>
+    <sheet name="Population risk areas" sheetId="64" r:id="rId16"/>
+    <sheet name="IYCF odds ratios" sheetId="65" r:id="rId17"/>
+    <sheet name="Birth outcome risks" sheetId="66" r:id="rId18"/>
+    <sheet name="Relative risks" sheetId="67" r:id="rId19"/>
+    <sheet name="Odds ratios" sheetId="68" r:id="rId20"/>
+    <sheet name="Programs birth outcomes" sheetId="69" r:id="rId21"/>
+    <sheet name="Programs anemia" sheetId="70" r:id="rId22"/>
+    <sheet name="Programs wasting" sheetId="71" r:id="rId23"/>
+    <sheet name="Programs for children" sheetId="72" r:id="rId24"/>
     <sheet name="Programs for PW" sheetId="73" state="hidden" r:id="rId25"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId26"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId27"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6210,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7067,1773 +7067,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet13">
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:O40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="93">
-        <v>0</v>
-      </c>
-      <c r="D2" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E2" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F2" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H2" s="94">
-        <v>0</v>
-      </c>
-      <c r="I2" s="94">
-        <v>0</v>
-      </c>
-      <c r="J2" s="94">
-        <v>0</v>
-      </c>
-      <c r="K2" s="94">
-        <v>0</v>
-      </c>
-      <c r="L2" s="94">
-        <v>0</v>
-      </c>
-      <c r="M2" s="94">
-        <v>0</v>
-      </c>
-      <c r="N2" s="94">
-        <v>0</v>
-      </c>
-      <c r="O2" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="93">
-        <v>1</v>
-      </c>
-      <c r="D3" s="93">
-        <v>0</v>
-      </c>
-      <c r="E3" s="93">
-        <v>0</v>
-      </c>
-      <c r="F3" s="93">
-        <v>0</v>
-      </c>
-      <c r="G3" s="93">
-        <v>0</v>
-      </c>
-      <c r="H3" s="94">
-        <v>0</v>
-      </c>
-      <c r="I3" s="94">
-        <v>0</v>
-      </c>
-      <c r="J3" s="94">
-        <v>0</v>
-      </c>
-      <c r="K3" s="94">
-        <v>0</v>
-      </c>
-      <c r="L3" s="94">
-        <v>0</v>
-      </c>
-      <c r="M3" s="94">
-        <v>0</v>
-      </c>
-      <c r="N3" s="94">
-        <v>0</v>
-      </c>
-      <c r="O3" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="93">
-        <v>1</v>
-      </c>
-      <c r="D4" s="93">
-        <v>0</v>
-      </c>
-      <c r="E4" s="93">
-        <v>0</v>
-      </c>
-      <c r="F4" s="93">
-        <v>0</v>
-      </c>
-      <c r="G4" s="93">
-        <v>0</v>
-      </c>
-      <c r="H4" s="94">
-        <v>0</v>
-      </c>
-      <c r="I4" s="94">
-        <v>0</v>
-      </c>
-      <c r="J4" s="94">
-        <v>0</v>
-      </c>
-      <c r="K4" s="94">
-        <v>0</v>
-      </c>
-      <c r="L4" s="94">
-        <v>0</v>
-      </c>
-      <c r="M4" s="94">
-        <v>0</v>
-      </c>
-      <c r="N4" s="94">
-        <v>0</v>
-      </c>
-      <c r="O4" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="93">
-        <v>0</v>
-      </c>
-      <c r="D5" s="93">
-        <v>0</v>
-      </c>
-      <c r="E5" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F5" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="93">
-        <v>0</v>
-      </c>
-      <c r="H5" s="94">
-        <v>0</v>
-      </c>
-      <c r="I5" s="94">
-        <v>0</v>
-      </c>
-      <c r="J5" s="94">
-        <v>0</v>
-      </c>
-      <c r="K5" s="94">
-        <v>0</v>
-      </c>
-      <c r="L5" s="94">
-        <v>0</v>
-      </c>
-      <c r="M5" s="94">
-        <v>0</v>
-      </c>
-      <c r="N5" s="94">
-        <v>0</v>
-      </c>
-      <c r="O5" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="93">
-        <v>0</v>
-      </c>
-      <c r="D6" s="93">
-        <v>0</v>
-      </c>
-      <c r="E6" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="94">
-        <v>0</v>
-      </c>
-      <c r="I6" s="94">
-        <v>0</v>
-      </c>
-      <c r="J6" s="94">
-        <v>0</v>
-      </c>
-      <c r="K6" s="94">
-        <v>0</v>
-      </c>
-      <c r="L6" s="94">
-        <v>0</v>
-      </c>
-      <c r="M6" s="94">
-        <v>0</v>
-      </c>
-      <c r="N6" s="94">
-        <v>0</v>
-      </c>
-      <c r="O6" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="93">
-        <f>diarrhoea_1mo/26</f>
-        <v>0.12030588865605771</v>
-      </c>
-      <c r="D7" s="93">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>0.10810420306653845</v>
-      </c>
-      <c r="E7" s="93">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.10810420306653845</v>
-      </c>
-      <c r="F7" s="93">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>7.188145026192308E-2</v>
-      </c>
-      <c r="G7" s="93">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.188145026192308E-2</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0</v>
-      </c>
-      <c r="I7" s="94">
-        <v>0</v>
-      </c>
-      <c r="J7" s="94">
-        <v>0</v>
-      </c>
-      <c r="K7" s="94">
-        <v>0</v>
-      </c>
-      <c r="L7" s="94">
-        <v>0</v>
-      </c>
-      <c r="M7" s="94">
-        <v>0</v>
-      </c>
-      <c r="N7" s="94">
-        <v>0</v>
-      </c>
-      <c r="O7" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="93">
-        <v>0</v>
-      </c>
-      <c r="D8" s="93">
-        <v>0</v>
-      </c>
-      <c r="E8" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F8" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="93">
-        <v>0</v>
-      </c>
-      <c r="H8" s="94">
-        <v>0</v>
-      </c>
-      <c r="I8" s="94">
-        <v>0</v>
-      </c>
-      <c r="J8" s="94">
-        <v>0</v>
-      </c>
-      <c r="K8" s="94">
-        <v>0</v>
-      </c>
-      <c r="L8" s="94">
-        <v>0</v>
-      </c>
-      <c r="M8" s="94">
-        <v>0</v>
-      </c>
-      <c r="N8" s="94">
-        <v>0</v>
-      </c>
-      <c r="O8" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="93">
-        <v>0</v>
-      </c>
-      <c r="D9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="94">
-        <v>0</v>
-      </c>
-      <c r="I9" s="94">
-        <v>0</v>
-      </c>
-      <c r="J9" s="94">
-        <v>0</v>
-      </c>
-      <c r="K9" s="94">
-        <v>0</v>
-      </c>
-      <c r="L9" s="94">
-        <v>0</v>
-      </c>
-      <c r="M9" s="94">
-        <v>0</v>
-      </c>
-      <c r="N9" s="94">
-        <v>0</v>
-      </c>
-      <c r="O9" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="93">
-        <v>0</v>
-      </c>
-      <c r="D10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="94">
-        <v>0</v>
-      </c>
-      <c r="I10" s="94">
-        <v>0</v>
-      </c>
-      <c r="J10" s="94">
-        <v>0</v>
-      </c>
-      <c r="K10" s="94">
-        <v>0</v>
-      </c>
-      <c r="L10" s="94">
-        <v>0</v>
-      </c>
-      <c r="M10" s="94">
-        <v>0</v>
-      </c>
-      <c r="N10" s="94">
-        <v>0</v>
-      </c>
-      <c r="O10" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="93">
-        <v>0</v>
-      </c>
-      <c r="D11" s="93">
-        <v>0</v>
-      </c>
-      <c r="E11" s="93">
-        <v>1</v>
-      </c>
-      <c r="F11" s="93">
-        <v>1</v>
-      </c>
-      <c r="G11" s="93">
-        <v>1</v>
-      </c>
-      <c r="H11" s="94">
-        <v>0</v>
-      </c>
-      <c r="I11" s="94">
-        <v>0</v>
-      </c>
-      <c r="J11" s="94">
-        <v>0</v>
-      </c>
-      <c r="K11" s="94">
-        <v>0</v>
-      </c>
-      <c r="L11" s="94">
-        <v>0</v>
-      </c>
-      <c r="M11" s="94">
-        <v>0</v>
-      </c>
-      <c r="N11" s="94">
-        <v>0</v>
-      </c>
-      <c r="O11" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="93">
-        <f>diarrhoea_1mo</f>
-        <v>3.1279531050575002</v>
-      </c>
-      <c r="D12" s="93">
-        <f>diarrhoea_1_5mo</f>
-        <v>2.8107092797299997</v>
-      </c>
-      <c r="E12" s="93">
-        <f>diarrhoea_6_11mo</f>
-        <v>2.8107092797299997</v>
-      </c>
-      <c r="F12" s="93">
-        <f>diarrhoea_12_23mo</f>
-        <v>1.86891770681</v>
-      </c>
-      <c r="G12" s="93">
-        <f>diarrhoea_24_59mo</f>
-        <v>1.86891770681</v>
-      </c>
-      <c r="H12" s="94">
-        <v>0</v>
-      </c>
-      <c r="I12" s="94">
-        <v>0</v>
-      </c>
-      <c r="J12" s="94">
-        <v>0</v>
-      </c>
-      <c r="K12" s="94">
-        <v>0</v>
-      </c>
-      <c r="L12" s="94">
-        <v>0</v>
-      </c>
-      <c r="M12" s="94">
-        <v>0</v>
-      </c>
-      <c r="N12" s="94">
-        <v>0</v>
-      </c>
-      <c r="O12" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="93">
-        <v>0</v>
-      </c>
-      <c r="D13" s="93">
-        <v>0</v>
-      </c>
-      <c r="E13" s="93">
-        <v>1</v>
-      </c>
-      <c r="F13" s="93">
-        <v>1</v>
-      </c>
-      <c r="G13" s="93">
-        <v>1</v>
-      </c>
-      <c r="H13" s="94">
-        <v>0</v>
-      </c>
-      <c r="I13" s="94">
-        <v>0</v>
-      </c>
-      <c r="J13" s="94">
-        <v>0</v>
-      </c>
-      <c r="K13" s="94">
-        <v>0</v>
-      </c>
-      <c r="L13" s="94">
-        <v>0</v>
-      </c>
-      <c r="M13" s="94">
-        <v>0</v>
-      </c>
-      <c r="N13" s="94">
-        <v>0</v>
-      </c>
-      <c r="O13" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="94">
-        <v>0</v>
-      </c>
-      <c r="D15" s="94">
-        <v>0</v>
-      </c>
-      <c r="E15" s="94">
-        <v>0</v>
-      </c>
-      <c r="F15" s="94">
-        <v>0</v>
-      </c>
-      <c r="G15" s="94">
-        <v>0</v>
-      </c>
-      <c r="H15" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I15" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J15" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K15" s="93">
-        <f>food_insecure</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L15" s="94">
-        <v>0</v>
-      </c>
-      <c r="M15" s="94">
-        <v>0</v>
-      </c>
-      <c r="N15" s="94">
-        <v>0</v>
-      </c>
-      <c r="O15" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="94">
-        <v>0</v>
-      </c>
-      <c r="D16" s="94">
-        <v>0</v>
-      </c>
-      <c r="E16" s="94">
-        <v>0</v>
-      </c>
-      <c r="F16" s="94">
-        <v>0</v>
-      </c>
-      <c r="G16" s="94">
-        <v>0</v>
-      </c>
-      <c r="H16" s="93">
-        <v>1</v>
-      </c>
-      <c r="I16" s="93">
-        <v>1</v>
-      </c>
-      <c r="J16" s="93">
-        <v>1</v>
-      </c>
-      <c r="K16" s="93">
-        <v>1</v>
-      </c>
-      <c r="L16" s="94">
-        <v>0</v>
-      </c>
-      <c r="M16" s="94">
-        <v>0</v>
-      </c>
-      <c r="N16" s="94">
-        <v>0</v>
-      </c>
-      <c r="O16" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="94">
-        <v>0</v>
-      </c>
-      <c r="D17" s="94">
-        <v>0</v>
-      </c>
-      <c r="E17" s="94">
-        <v>0</v>
-      </c>
-      <c r="F17" s="94">
-        <v>0</v>
-      </c>
-      <c r="G17" s="94">
-        <v>0</v>
-      </c>
-      <c r="H17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="94">
-        <v>0</v>
-      </c>
-      <c r="M17" s="94">
-        <v>0</v>
-      </c>
-      <c r="N17" s="94">
-        <v>0</v>
-      </c>
-      <c r="O17" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="94">
-        <v>0</v>
-      </c>
-      <c r="D18" s="94">
-        <v>0</v>
-      </c>
-      <c r="E18" s="94">
-        <v>0</v>
-      </c>
-      <c r="F18" s="94">
-        <v>0</v>
-      </c>
-      <c r="G18" s="94">
-        <v>0</v>
-      </c>
-      <c r="H18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0.62</v>
-      </c>
-      <c r="I18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0.62</v>
-      </c>
-      <c r="J18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0.62</v>
-      </c>
-      <c r="K18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0.62</v>
-      </c>
-      <c r="L18" s="94">
-        <v>0</v>
-      </c>
-      <c r="M18" s="94">
-        <v>0</v>
-      </c>
-      <c r="N18" s="94">
-        <v>0</v>
-      </c>
-      <c r="O18" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="94">
-        <v>0</v>
-      </c>
-      <c r="D19" s="94">
-        <v>0</v>
-      </c>
-      <c r="E19" s="94">
-        <v>0</v>
-      </c>
-      <c r="F19" s="94">
-        <v>0</v>
-      </c>
-      <c r="G19" s="94">
-        <v>0</v>
-      </c>
-      <c r="H19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L19" s="94">
-        <v>0</v>
-      </c>
-      <c r="M19" s="94">
-        <v>0</v>
-      </c>
-      <c r="N19" s="94">
-        <v>0</v>
-      </c>
-      <c r="O19" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="94">
-        <v>0</v>
-      </c>
-      <c r="D20" s="94">
-        <v>0</v>
-      </c>
-      <c r="E20" s="94">
-        <v>0</v>
-      </c>
-      <c r="F20" s="94">
-        <v>0</v>
-      </c>
-      <c r="G20" s="94">
-        <v>0</v>
-      </c>
-      <c r="H20" s="93">
-        <v>1</v>
-      </c>
-      <c r="I20" s="93">
-        <v>1</v>
-      </c>
-      <c r="J20" s="93">
-        <v>1</v>
-      </c>
-      <c r="K20" s="93">
-        <v>1</v>
-      </c>
-      <c r="L20" s="94">
-        <v>0</v>
-      </c>
-      <c r="M20" s="94">
-        <v>0</v>
-      </c>
-      <c r="N20" s="94">
-        <v>0</v>
-      </c>
-      <c r="O20" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="94">
-        <v>0</v>
-      </c>
-      <c r="D21" s="94">
-        <v>0</v>
-      </c>
-      <c r="E21" s="94">
-        <v>0</v>
-      </c>
-      <c r="F21" s="94">
-        <v>0</v>
-      </c>
-      <c r="G21" s="94">
-        <v>0</v>
-      </c>
-      <c r="H21" s="93">
-        <v>1</v>
-      </c>
-      <c r="I21" s="93">
-        <v>1</v>
-      </c>
-      <c r="J21" s="93">
-        <v>1</v>
-      </c>
-      <c r="K21" s="93">
-        <v>1</v>
-      </c>
-      <c r="L21" s="94">
-        <v>0</v>
-      </c>
-      <c r="M21" s="94">
-        <v>0</v>
-      </c>
-      <c r="N21" s="94">
-        <v>0</v>
-      </c>
-      <c r="O21" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="94">
-        <v>0</v>
-      </c>
-      <c r="D22" s="94">
-        <v>0</v>
-      </c>
-      <c r="E22" s="94">
-        <v>0</v>
-      </c>
-      <c r="F22" s="94">
-        <v>0</v>
-      </c>
-      <c r="G22" s="94">
-        <v>0</v>
-      </c>
-      <c r="H22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="94">
-        <v>0</v>
-      </c>
-      <c r="M22" s="94">
-        <v>0</v>
-      </c>
-      <c r="N22" s="94">
-        <v>0</v>
-      </c>
-      <c r="O22" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="94">
-        <v>0</v>
-      </c>
-      <c r="D24" s="94">
-        <v>0</v>
-      </c>
-      <c r="E24" s="94">
-        <v>0</v>
-      </c>
-      <c r="F24" s="94">
-        <v>0</v>
-      </c>
-      <c r="G24" s="94">
-        <v>0</v>
-      </c>
-      <c r="H24" s="94">
-        <v>0</v>
-      </c>
-      <c r="I24" s="94">
-        <v>0</v>
-      </c>
-      <c r="J24" s="94">
-        <v>0</v>
-      </c>
-      <c r="K24" s="94">
-        <v>0</v>
-      </c>
-      <c r="L24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="M24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="N24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="O24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="94">
-        <v>0</v>
-      </c>
-      <c r="D25" s="94">
-        <v>0</v>
-      </c>
-      <c r="E25" s="94">
-        <v>0</v>
-      </c>
-      <c r="F25" s="94">
-        <v>0</v>
-      </c>
-      <c r="G25" s="94">
-        <v>0</v>
-      </c>
-      <c r="H25" s="94">
-        <v>0</v>
-      </c>
-      <c r="I25" s="94">
-        <v>0</v>
-      </c>
-      <c r="J25" s="94">
-        <v>0</v>
-      </c>
-      <c r="K25" s="94">
-        <v>0</v>
-      </c>
-      <c r="L25" s="93">
-        <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
-        <v>0.17189896987915007</v>
-      </c>
-      <c r="M25" s="93">
-        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49104999999999999</v>
-      </c>
-      <c r="N25" s="93">
-        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49104999999999999</v>
-      </c>
-      <c r="O25" s="93">
-        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49104999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="94">
-        <v>0</v>
-      </c>
-      <c r="D26" s="94">
-        <v>0</v>
-      </c>
-      <c r="E26" s="94">
-        <v>0</v>
-      </c>
-      <c r="F26" s="94">
-        <v>0</v>
-      </c>
-      <c r="G26" s="94">
-        <v>0</v>
-      </c>
-      <c r="H26" s="94">
-        <v>0</v>
-      </c>
-      <c r="I26" s="94">
-        <v>0</v>
-      </c>
-      <c r="J26" s="94">
-        <v>0</v>
-      </c>
-      <c r="K26" s="94">
-        <v>0</v>
-      </c>
-      <c r="L26" s="93">
-        <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
-        <v>7.3670987091064316E-2</v>
-      </c>
-      <c r="M26" s="93">
-        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21045</v>
-      </c>
-      <c r="N26" s="93">
-        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21045</v>
-      </c>
-      <c r="O26" s="93">
-        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="94">
-        <v>0</v>
-      </c>
-      <c r="D27" s="94">
-        <v>0</v>
-      </c>
-      <c r="E27" s="94">
-        <v>0</v>
-      </c>
-      <c r="F27" s="94">
-        <v>0</v>
-      </c>
-      <c r="G27" s="94">
-        <v>0</v>
-      </c>
-      <c r="H27" s="94">
-        <v>0</v>
-      </c>
-      <c r="I27" s="94">
-        <v>0</v>
-      </c>
-      <c r="J27" s="94">
-        <v>0</v>
-      </c>
-      <c r="K27" s="94">
-        <v>0</v>
-      </c>
-      <c r="L27" s="93">
-        <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
-        <v>0.10449412994384746</v>
-      </c>
-      <c r="M27" s="93">
-        <f>(1-food_insecure)*(0.3)</f>
-        <v>0.29849999999999999</v>
-      </c>
-      <c r="N27" s="93">
-        <f>(1-food_insecure)*(0.3)</f>
-        <v>0.29849999999999999</v>
-      </c>
-      <c r="O27" s="93">
-        <f>(1-food_insecure)*(0.3)</f>
-        <v>0.29849999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="94">
-        <v>0</v>
-      </c>
-      <c r="D28" s="94">
-        <v>0</v>
-      </c>
-      <c r="E28" s="94">
-        <v>0</v>
-      </c>
-      <c r="F28" s="94">
-        <v>0</v>
-      </c>
-      <c r="G28" s="94">
-        <v>0</v>
-      </c>
-      <c r="H28" s="94">
-        <v>0</v>
-      </c>
-      <c r="I28" s="94">
-        <v>0</v>
-      </c>
-      <c r="J28" s="94">
-        <v>0</v>
-      </c>
-      <c r="K28" s="94">
-        <v>0</v>
-      </c>
-      <c r="L28" s="93">
-        <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
-        <v>0.64993591308593812</v>
-      </c>
-      <c r="M28" s="93">
-        <v>0</v>
-      </c>
-      <c r="N28" s="93">
-        <v>0</v>
-      </c>
-      <c r="O28" s="93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="93">
-        <v>0</v>
-      </c>
-      <c r="D30" s="93">
-        <v>0</v>
-      </c>
-      <c r="E30" s="93">
-        <f t="shared" ref="E30:O30" si="0">frac_maize</f>
-        <v>0.99</v>
-      </c>
-      <c r="F30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="G30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="H30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="I30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="J30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="K30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="L30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="M30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="N30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="O30" s="93">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="93">
-        <v>0</v>
-      </c>
-      <c r="D31" s="93">
-        <v>0</v>
-      </c>
-      <c r="E31" s="93">
-        <f t="shared" ref="E31:O31" si="1">frac_rice</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O31" s="93">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="93">
-        <v>0</v>
-      </c>
-      <c r="D32" s="93">
-        <v>0</v>
-      </c>
-      <c r="E32" s="93">
-        <f t="shared" ref="E32:O32" si="2">frac_wheat</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O32" s="93">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="93">
-        <v>0</v>
-      </c>
-      <c r="D33" s="93">
-        <v>0</v>
-      </c>
-      <c r="E33" s="93">
-        <v>1</v>
-      </c>
-      <c r="F33" s="93">
-        <v>1</v>
-      </c>
-      <c r="G33" s="93">
-        <v>1</v>
-      </c>
-      <c r="H33" s="93">
-        <v>1</v>
-      </c>
-      <c r="I33" s="93">
-        <v>1</v>
-      </c>
-      <c r="J33" s="93">
-        <v>1</v>
-      </c>
-      <c r="K33" s="93">
-        <v>1</v>
-      </c>
-      <c r="L33" s="93">
-        <v>1</v>
-      </c>
-      <c r="M33" s="93">
-        <v>1</v>
-      </c>
-      <c r="N33" s="93">
-        <v>1</v>
-      </c>
-      <c r="O33" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="93">
-        <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O34" s="93">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="93">
-        <v>1</v>
-      </c>
-      <c r="D35" s="93">
-        <v>1</v>
-      </c>
-      <c r="E35" s="93">
-        <v>1</v>
-      </c>
-      <c r="F35" s="93">
-        <v>1</v>
-      </c>
-      <c r="G35" s="93">
-        <v>1</v>
-      </c>
-      <c r="H35" s="93">
-        <v>1</v>
-      </c>
-      <c r="I35" s="93">
-        <v>1</v>
-      </c>
-      <c r="J35" s="93">
-        <v>1</v>
-      </c>
-      <c r="K35" s="93">
-        <v>1</v>
-      </c>
-      <c r="L35" s="93">
-        <v>1</v>
-      </c>
-      <c r="M35" s="93">
-        <v>1</v>
-      </c>
-      <c r="N35" s="93">
-        <v>1</v>
-      </c>
-      <c r="O35" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="93">
-        <v>1</v>
-      </c>
-      <c r="D36" s="93">
-        <v>1</v>
-      </c>
-      <c r="E36" s="93">
-        <v>1</v>
-      </c>
-      <c r="F36" s="93">
-        <v>1</v>
-      </c>
-      <c r="G36" s="93">
-        <v>1</v>
-      </c>
-      <c r="H36" s="93">
-        <v>1</v>
-      </c>
-      <c r="I36" s="93">
-        <v>1</v>
-      </c>
-      <c r="J36" s="93">
-        <v>1</v>
-      </c>
-      <c r="K36" s="93">
-        <v>1</v>
-      </c>
-      <c r="L36" s="93">
-        <v>1</v>
-      </c>
-      <c r="M36" s="93">
-        <v>1</v>
-      </c>
-      <c r="N36" s="93">
-        <v>1</v>
-      </c>
-      <c r="O36" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="93">
-        <v>1</v>
-      </c>
-      <c r="D37" s="93">
-        <v>1</v>
-      </c>
-      <c r="E37" s="93">
-        <v>1</v>
-      </c>
-      <c r="F37" s="93">
-        <v>1</v>
-      </c>
-      <c r="G37" s="93">
-        <v>1</v>
-      </c>
-      <c r="H37" s="93">
-        <v>1</v>
-      </c>
-      <c r="I37" s="93">
-        <v>1</v>
-      </c>
-      <c r="J37" s="93">
-        <v>1</v>
-      </c>
-      <c r="K37" s="93">
-        <v>1</v>
-      </c>
-      <c r="L37" s="93">
-        <v>1</v>
-      </c>
-      <c r="M37" s="93">
-        <v>1</v>
-      </c>
-      <c r="N37" s="93">
-        <v>1</v>
-      </c>
-      <c r="O37" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="93">
-        <v>1</v>
-      </c>
-      <c r="D38" s="93">
-        <v>1</v>
-      </c>
-      <c r="E38" s="93">
-        <v>1</v>
-      </c>
-      <c r="F38" s="93">
-        <v>1</v>
-      </c>
-      <c r="G38" s="93">
-        <v>1</v>
-      </c>
-      <c r="H38" s="93">
-        <v>1</v>
-      </c>
-      <c r="I38" s="93">
-        <v>1</v>
-      </c>
-      <c r="J38" s="93">
-        <v>1</v>
-      </c>
-      <c r="K38" s="93">
-        <v>1</v>
-      </c>
-      <c r="L38" s="93">
-        <v>1</v>
-      </c>
-      <c r="M38" s="93">
-        <v>1</v>
-      </c>
-      <c r="N38" s="93">
-        <v>1</v>
-      </c>
-      <c r="O38" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="93">
-        <v>1</v>
-      </c>
-      <c r="D39" s="93">
-        <v>1</v>
-      </c>
-      <c r="E39" s="93">
-        <v>1</v>
-      </c>
-      <c r="F39" s="93">
-        <v>1</v>
-      </c>
-      <c r="G39" s="93">
-        <v>1</v>
-      </c>
-      <c r="H39" s="93">
-        <v>1</v>
-      </c>
-      <c r="I39" s="93">
-        <v>1</v>
-      </c>
-      <c r="J39" s="93">
-        <v>1</v>
-      </c>
-      <c r="K39" s="93">
-        <v>1</v>
-      </c>
-      <c r="L39" s="93">
-        <v>1</v>
-      </c>
-      <c r="M39" s="93">
-        <v>1</v>
-      </c>
-      <c r="N39" s="93">
-        <v>1</v>
-      </c>
-      <c r="O39" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
-    <sortCondition ref="B15:B22"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -10643,6 +8876,1773 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="R6E4Z1eMEwhWY9x8ah7fn60K/FUhiD3bjZsN+d0aneOUBQjx+MSzEQ3f4xgLromXQacg2RuQX2zps17p5X6/Gg==" saltValue="2H1gYE0Uxd3bfzXEuxrcUQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13">
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="93">
+        <v>0</v>
+      </c>
+      <c r="D2" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F2" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H2" s="94">
+        <v>0</v>
+      </c>
+      <c r="I2" s="94">
+        <v>0</v>
+      </c>
+      <c r="J2" s="94">
+        <v>0</v>
+      </c>
+      <c r="K2" s="94">
+        <v>0</v>
+      </c>
+      <c r="L2" s="94">
+        <v>0</v>
+      </c>
+      <c r="M2" s="94">
+        <v>0</v>
+      </c>
+      <c r="N2" s="94">
+        <v>0</v>
+      </c>
+      <c r="O2" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="93">
+        <v>1</v>
+      </c>
+      <c r="D3" s="93">
+        <v>0</v>
+      </c>
+      <c r="E3" s="93">
+        <v>0</v>
+      </c>
+      <c r="F3" s="93">
+        <v>0</v>
+      </c>
+      <c r="G3" s="93">
+        <v>0</v>
+      </c>
+      <c r="H3" s="94">
+        <v>0</v>
+      </c>
+      <c r="I3" s="94">
+        <v>0</v>
+      </c>
+      <c r="J3" s="94">
+        <v>0</v>
+      </c>
+      <c r="K3" s="94">
+        <v>0</v>
+      </c>
+      <c r="L3" s="94">
+        <v>0</v>
+      </c>
+      <c r="M3" s="94">
+        <v>0</v>
+      </c>
+      <c r="N3" s="94">
+        <v>0</v>
+      </c>
+      <c r="O3" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="93">
+        <v>1</v>
+      </c>
+      <c r="D4" s="93">
+        <v>0</v>
+      </c>
+      <c r="E4" s="93">
+        <v>0</v>
+      </c>
+      <c r="F4" s="93">
+        <v>0</v>
+      </c>
+      <c r="G4" s="93">
+        <v>0</v>
+      </c>
+      <c r="H4" s="94">
+        <v>0</v>
+      </c>
+      <c r="I4" s="94">
+        <v>0</v>
+      </c>
+      <c r="J4" s="94">
+        <v>0</v>
+      </c>
+      <c r="K4" s="94">
+        <v>0</v>
+      </c>
+      <c r="L4" s="94">
+        <v>0</v>
+      </c>
+      <c r="M4" s="94">
+        <v>0</v>
+      </c>
+      <c r="N4" s="94">
+        <v>0</v>
+      </c>
+      <c r="O4" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="93">
+        <v>0</v>
+      </c>
+      <c r="D5" s="93">
+        <v>0</v>
+      </c>
+      <c r="E5" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="93">
+        <v>0</v>
+      </c>
+      <c r="H5" s="94">
+        <v>0</v>
+      </c>
+      <c r="I5" s="94">
+        <v>0</v>
+      </c>
+      <c r="J5" s="94">
+        <v>0</v>
+      </c>
+      <c r="K5" s="94">
+        <v>0</v>
+      </c>
+      <c r="L5" s="94">
+        <v>0</v>
+      </c>
+      <c r="M5" s="94">
+        <v>0</v>
+      </c>
+      <c r="N5" s="94">
+        <v>0</v>
+      </c>
+      <c r="O5" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="93">
+        <v>0</v>
+      </c>
+      <c r="D6" s="93">
+        <v>0</v>
+      </c>
+      <c r="E6" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="94">
+        <v>0</v>
+      </c>
+      <c r="I6" s="94">
+        <v>0</v>
+      </c>
+      <c r="J6" s="94">
+        <v>0</v>
+      </c>
+      <c r="K6" s="94">
+        <v>0</v>
+      </c>
+      <c r="L6" s="94">
+        <v>0</v>
+      </c>
+      <c r="M6" s="94">
+        <v>0</v>
+      </c>
+      <c r="N6" s="94">
+        <v>0</v>
+      </c>
+      <c r="O6" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="93">
+        <f>diarrhoea_1mo</f>
+        <v>3.1279531050575002</v>
+      </c>
+      <c r="D7" s="93">
+        <f>diarrhoea_1_5mo</f>
+        <v>2.8107092797299997</v>
+      </c>
+      <c r="E7" s="93">
+        <f>diarrhoea_6_11mo</f>
+        <v>2.8107092797299997</v>
+      </c>
+      <c r="F7" s="93">
+        <f>diarrhoea_12_23mo</f>
+        <v>1.86891770681</v>
+      </c>
+      <c r="G7" s="93">
+        <f>diarrhoea_24_59mo</f>
+        <v>1.86891770681</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0</v>
+      </c>
+      <c r="I7" s="94">
+        <v>0</v>
+      </c>
+      <c r="J7" s="94">
+        <v>0</v>
+      </c>
+      <c r="K7" s="94">
+        <v>0</v>
+      </c>
+      <c r="L7" s="94">
+        <v>0</v>
+      </c>
+      <c r="M7" s="94">
+        <v>0</v>
+      </c>
+      <c r="N7" s="94">
+        <v>0</v>
+      </c>
+      <c r="O7" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="93">
+        <v>0</v>
+      </c>
+      <c r="D8" s="93">
+        <v>0</v>
+      </c>
+      <c r="E8" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="93">
+        <v>0</v>
+      </c>
+      <c r="H8" s="94">
+        <v>0</v>
+      </c>
+      <c r="I8" s="94">
+        <v>0</v>
+      </c>
+      <c r="J8" s="94">
+        <v>0</v>
+      </c>
+      <c r="K8" s="94">
+        <v>0</v>
+      </c>
+      <c r="L8" s="94">
+        <v>0</v>
+      </c>
+      <c r="M8" s="94">
+        <v>0</v>
+      </c>
+      <c r="N8" s="94">
+        <v>0</v>
+      </c>
+      <c r="O8" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="93">
+        <v>0</v>
+      </c>
+      <c r="D9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="94">
+        <v>0</v>
+      </c>
+      <c r="I9" s="94">
+        <v>0</v>
+      </c>
+      <c r="J9" s="94">
+        <v>0</v>
+      </c>
+      <c r="K9" s="94">
+        <v>0</v>
+      </c>
+      <c r="L9" s="94">
+        <v>0</v>
+      </c>
+      <c r="M9" s="94">
+        <v>0</v>
+      </c>
+      <c r="N9" s="94">
+        <v>0</v>
+      </c>
+      <c r="O9" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="93">
+        <v>0</v>
+      </c>
+      <c r="D10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="94">
+        <v>0</v>
+      </c>
+      <c r="I10" s="94">
+        <v>0</v>
+      </c>
+      <c r="J10" s="94">
+        <v>0</v>
+      </c>
+      <c r="K10" s="94">
+        <v>0</v>
+      </c>
+      <c r="L10" s="94">
+        <v>0</v>
+      </c>
+      <c r="M10" s="94">
+        <v>0</v>
+      </c>
+      <c r="N10" s="94">
+        <v>0</v>
+      </c>
+      <c r="O10" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="93">
+        <v>0</v>
+      </c>
+      <c r="D11" s="93">
+        <v>0</v>
+      </c>
+      <c r="E11" s="93">
+        <v>1</v>
+      </c>
+      <c r="F11" s="93">
+        <v>1</v>
+      </c>
+      <c r="G11" s="93">
+        <v>1</v>
+      </c>
+      <c r="H11" s="94">
+        <v>0</v>
+      </c>
+      <c r="I11" s="94">
+        <v>0</v>
+      </c>
+      <c r="J11" s="94">
+        <v>0</v>
+      </c>
+      <c r="K11" s="94">
+        <v>0</v>
+      </c>
+      <c r="L11" s="94">
+        <v>0</v>
+      </c>
+      <c r="M11" s="94">
+        <v>0</v>
+      </c>
+      <c r="N11" s="94">
+        <v>0</v>
+      </c>
+      <c r="O11" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="93">
+        <f>diarrhoea_1mo</f>
+        <v>3.1279531050575002</v>
+      </c>
+      <c r="D12" s="93">
+        <f>diarrhoea_1_5mo</f>
+        <v>2.8107092797299997</v>
+      </c>
+      <c r="E12" s="93">
+        <f>diarrhoea_6_11mo</f>
+        <v>2.8107092797299997</v>
+      </c>
+      <c r="F12" s="93">
+        <f>diarrhoea_12_23mo</f>
+        <v>1.86891770681</v>
+      </c>
+      <c r="G12" s="93">
+        <f>diarrhoea_24_59mo</f>
+        <v>1.86891770681</v>
+      </c>
+      <c r="H12" s="94">
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="94">
+        <v>0</v>
+      </c>
+      <c r="K12" s="94">
+        <v>0</v>
+      </c>
+      <c r="L12" s="94">
+        <v>0</v>
+      </c>
+      <c r="M12" s="94">
+        <v>0</v>
+      </c>
+      <c r="N12" s="94">
+        <v>0</v>
+      </c>
+      <c r="O12" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="93">
+        <v>0</v>
+      </c>
+      <c r="D13" s="93">
+        <v>0</v>
+      </c>
+      <c r="E13" s="93">
+        <v>1</v>
+      </c>
+      <c r="F13" s="93">
+        <v>1</v>
+      </c>
+      <c r="G13" s="93">
+        <v>1</v>
+      </c>
+      <c r="H13" s="94">
+        <v>0</v>
+      </c>
+      <c r="I13" s="94">
+        <v>0</v>
+      </c>
+      <c r="J13" s="94">
+        <v>0</v>
+      </c>
+      <c r="K13" s="94">
+        <v>0</v>
+      </c>
+      <c r="L13" s="94">
+        <v>0</v>
+      </c>
+      <c r="M13" s="94">
+        <v>0</v>
+      </c>
+      <c r="N13" s="94">
+        <v>0</v>
+      </c>
+      <c r="O13" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="94">
+        <v>0</v>
+      </c>
+      <c r="D15" s="94">
+        <v>0</v>
+      </c>
+      <c r="E15" s="94">
+        <v>0</v>
+      </c>
+      <c r="F15" s="94">
+        <v>0</v>
+      </c>
+      <c r="G15" s="94">
+        <v>0</v>
+      </c>
+      <c r="H15" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K15" s="93">
+        <f>food_insecure</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="94">
+        <v>0</v>
+      </c>
+      <c r="M15" s="94">
+        <v>0</v>
+      </c>
+      <c r="N15" s="94">
+        <v>0</v>
+      </c>
+      <c r="O15" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="94">
+        <v>0</v>
+      </c>
+      <c r="D16" s="94">
+        <v>0</v>
+      </c>
+      <c r="E16" s="94">
+        <v>0</v>
+      </c>
+      <c r="F16" s="94">
+        <v>0</v>
+      </c>
+      <c r="G16" s="94">
+        <v>0</v>
+      </c>
+      <c r="H16" s="93">
+        <v>1</v>
+      </c>
+      <c r="I16" s="93">
+        <v>1</v>
+      </c>
+      <c r="J16" s="93">
+        <v>1</v>
+      </c>
+      <c r="K16" s="93">
+        <v>1</v>
+      </c>
+      <c r="L16" s="94">
+        <v>0</v>
+      </c>
+      <c r="M16" s="94">
+        <v>0</v>
+      </c>
+      <c r="N16" s="94">
+        <v>0</v>
+      </c>
+      <c r="O16" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="94">
+        <v>0</v>
+      </c>
+      <c r="D17" s="94">
+        <v>0</v>
+      </c>
+      <c r="E17" s="94">
+        <v>0</v>
+      </c>
+      <c r="F17" s="94">
+        <v>0</v>
+      </c>
+      <c r="G17" s="94">
+        <v>0</v>
+      </c>
+      <c r="H17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="94">
+        <v>0</v>
+      </c>
+      <c r="M17" s="94">
+        <v>0</v>
+      </c>
+      <c r="N17" s="94">
+        <v>0</v>
+      </c>
+      <c r="O17" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="94">
+        <v>0</v>
+      </c>
+      <c r="D18" s="94">
+        <v>0</v>
+      </c>
+      <c r="E18" s="94">
+        <v>0</v>
+      </c>
+      <c r="F18" s="94">
+        <v>0</v>
+      </c>
+      <c r="G18" s="94">
+        <v>0</v>
+      </c>
+      <c r="H18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0.62</v>
+      </c>
+      <c r="I18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0.62</v>
+      </c>
+      <c r="J18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0.62</v>
+      </c>
+      <c r="K18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0.62</v>
+      </c>
+      <c r="L18" s="94">
+        <v>0</v>
+      </c>
+      <c r="M18" s="94">
+        <v>0</v>
+      </c>
+      <c r="N18" s="94">
+        <v>0</v>
+      </c>
+      <c r="O18" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="94">
+        <v>0</v>
+      </c>
+      <c r="D19" s="94">
+        <v>0</v>
+      </c>
+      <c r="E19" s="94">
+        <v>0</v>
+      </c>
+      <c r="F19" s="94">
+        <v>0</v>
+      </c>
+      <c r="G19" s="94">
+        <v>0</v>
+      </c>
+      <c r="H19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L19" s="94">
+        <v>0</v>
+      </c>
+      <c r="M19" s="94">
+        <v>0</v>
+      </c>
+      <c r="N19" s="94">
+        <v>0</v>
+      </c>
+      <c r="O19" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="94">
+        <v>0</v>
+      </c>
+      <c r="D20" s="94">
+        <v>0</v>
+      </c>
+      <c r="E20" s="94">
+        <v>0</v>
+      </c>
+      <c r="F20" s="94">
+        <v>0</v>
+      </c>
+      <c r="G20" s="94">
+        <v>0</v>
+      </c>
+      <c r="H20" s="93">
+        <v>1</v>
+      </c>
+      <c r="I20" s="93">
+        <v>1</v>
+      </c>
+      <c r="J20" s="93">
+        <v>1</v>
+      </c>
+      <c r="K20" s="93">
+        <v>1</v>
+      </c>
+      <c r="L20" s="94">
+        <v>0</v>
+      </c>
+      <c r="M20" s="94">
+        <v>0</v>
+      </c>
+      <c r="N20" s="94">
+        <v>0</v>
+      </c>
+      <c r="O20" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="94">
+        <v>0</v>
+      </c>
+      <c r="D21" s="94">
+        <v>0</v>
+      </c>
+      <c r="E21" s="94">
+        <v>0</v>
+      </c>
+      <c r="F21" s="94">
+        <v>0</v>
+      </c>
+      <c r="G21" s="94">
+        <v>0</v>
+      </c>
+      <c r="H21" s="93">
+        <v>1</v>
+      </c>
+      <c r="I21" s="93">
+        <v>1</v>
+      </c>
+      <c r="J21" s="93">
+        <v>1</v>
+      </c>
+      <c r="K21" s="93">
+        <v>1</v>
+      </c>
+      <c r="L21" s="94">
+        <v>0</v>
+      </c>
+      <c r="M21" s="94">
+        <v>0</v>
+      </c>
+      <c r="N21" s="94">
+        <v>0</v>
+      </c>
+      <c r="O21" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="94">
+        <v>0</v>
+      </c>
+      <c r="D22" s="94">
+        <v>0</v>
+      </c>
+      <c r="E22" s="94">
+        <v>0</v>
+      </c>
+      <c r="F22" s="94">
+        <v>0</v>
+      </c>
+      <c r="G22" s="94">
+        <v>0</v>
+      </c>
+      <c r="H22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="94">
+        <v>0</v>
+      </c>
+      <c r="M22" s="94">
+        <v>0</v>
+      </c>
+      <c r="N22" s="94">
+        <v>0</v>
+      </c>
+      <c r="O22" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="94">
+        <v>0</v>
+      </c>
+      <c r="D24" s="94">
+        <v>0</v>
+      </c>
+      <c r="E24" s="94">
+        <v>0</v>
+      </c>
+      <c r="F24" s="94">
+        <v>0</v>
+      </c>
+      <c r="G24" s="94">
+        <v>0</v>
+      </c>
+      <c r="H24" s="94">
+        <v>0</v>
+      </c>
+      <c r="I24" s="94">
+        <v>0</v>
+      </c>
+      <c r="J24" s="94">
+        <v>0</v>
+      </c>
+      <c r="K24" s="94">
+        <v>0</v>
+      </c>
+      <c r="L24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="N24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="O24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="94">
+        <v>0</v>
+      </c>
+      <c r="D25" s="94">
+        <v>0</v>
+      </c>
+      <c r="E25" s="94">
+        <v>0</v>
+      </c>
+      <c r="F25" s="94">
+        <v>0</v>
+      </c>
+      <c r="G25" s="94">
+        <v>0</v>
+      </c>
+      <c r="H25" s="94">
+        <v>0</v>
+      </c>
+      <c r="I25" s="94">
+        <v>0</v>
+      </c>
+      <c r="J25" s="94">
+        <v>0</v>
+      </c>
+      <c r="K25" s="94">
+        <v>0</v>
+      </c>
+      <c r="L25" s="93">
+        <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
+        <v>0.17189896987915007</v>
+      </c>
+      <c r="M25" s="93">
+        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
+        <v>0.49104999999999999</v>
+      </c>
+      <c r="N25" s="93">
+        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
+        <v>0.49104999999999999</v>
+      </c>
+      <c r="O25" s="93">
+        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
+        <v>0.49104999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="94">
+        <v>0</v>
+      </c>
+      <c r="D26" s="94">
+        <v>0</v>
+      </c>
+      <c r="E26" s="94">
+        <v>0</v>
+      </c>
+      <c r="F26" s="94">
+        <v>0</v>
+      </c>
+      <c r="G26" s="94">
+        <v>0</v>
+      </c>
+      <c r="H26" s="94">
+        <v>0</v>
+      </c>
+      <c r="I26" s="94">
+        <v>0</v>
+      </c>
+      <c r="J26" s="94">
+        <v>0</v>
+      </c>
+      <c r="K26" s="94">
+        <v>0</v>
+      </c>
+      <c r="L26" s="93">
+        <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
+        <v>7.3670987091064316E-2</v>
+      </c>
+      <c r="M26" s="93">
+        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
+        <v>0.21045</v>
+      </c>
+      <c r="N26" s="93">
+        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
+        <v>0.21045</v>
+      </c>
+      <c r="O26" s="93">
+        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
+        <v>0.21045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="94">
+        <v>0</v>
+      </c>
+      <c r="D27" s="94">
+        <v>0</v>
+      </c>
+      <c r="E27" s="94">
+        <v>0</v>
+      </c>
+      <c r="F27" s="94">
+        <v>0</v>
+      </c>
+      <c r="G27" s="94">
+        <v>0</v>
+      </c>
+      <c r="H27" s="94">
+        <v>0</v>
+      </c>
+      <c r="I27" s="94">
+        <v>0</v>
+      </c>
+      <c r="J27" s="94">
+        <v>0</v>
+      </c>
+      <c r="K27" s="94">
+        <v>0</v>
+      </c>
+      <c r="L27" s="93">
+        <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
+        <v>0.10449412994384746</v>
+      </c>
+      <c r="M27" s="93">
+        <f>(1-food_insecure)*(0.3)</f>
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="N27" s="93">
+        <f>(1-food_insecure)*(0.3)</f>
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="O27" s="93">
+        <f>(1-food_insecure)*(0.3)</f>
+        <v>0.29849999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="94">
+        <v>0</v>
+      </c>
+      <c r="D28" s="94">
+        <v>0</v>
+      </c>
+      <c r="E28" s="94">
+        <v>0</v>
+      </c>
+      <c r="F28" s="94">
+        <v>0</v>
+      </c>
+      <c r="G28" s="94">
+        <v>0</v>
+      </c>
+      <c r="H28" s="94">
+        <v>0</v>
+      </c>
+      <c r="I28" s="94">
+        <v>0</v>
+      </c>
+      <c r="J28" s="94">
+        <v>0</v>
+      </c>
+      <c r="K28" s="94">
+        <v>0</v>
+      </c>
+      <c r="L28" s="93">
+        <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
+        <v>0.64993591308593812</v>
+      </c>
+      <c r="M28" s="93">
+        <v>0</v>
+      </c>
+      <c r="N28" s="93">
+        <v>0</v>
+      </c>
+      <c r="O28" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="93">
+        <v>0</v>
+      </c>
+      <c r="D30" s="93">
+        <v>0</v>
+      </c>
+      <c r="E30" s="93">
+        <f t="shared" ref="E30:O30" si="0">frac_maize</f>
+        <v>0.99</v>
+      </c>
+      <c r="F30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="G30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="H30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="I30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="J30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="K30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="L30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="M30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="N30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="O30" s="93">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="93">
+        <v>0</v>
+      </c>
+      <c r="D31" s="93">
+        <v>0</v>
+      </c>
+      <c r="E31" s="93">
+        <f t="shared" ref="E31:O31" si="1">frac_rice</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O31" s="93">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="93">
+        <v>0</v>
+      </c>
+      <c r="D32" s="93">
+        <v>0</v>
+      </c>
+      <c r="E32" s="93">
+        <f t="shared" ref="E32:O32" si="2">frac_wheat</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O32" s="93">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="93">
+        <v>0</v>
+      </c>
+      <c r="D33" s="93">
+        <v>0</v>
+      </c>
+      <c r="E33" s="93">
+        <v>1</v>
+      </c>
+      <c r="F33" s="93">
+        <v>1</v>
+      </c>
+      <c r="G33" s="93">
+        <v>1</v>
+      </c>
+      <c r="H33" s="93">
+        <v>1</v>
+      </c>
+      <c r="I33" s="93">
+        <v>1</v>
+      </c>
+      <c r="J33" s="93">
+        <v>1</v>
+      </c>
+      <c r="K33" s="93">
+        <v>1</v>
+      </c>
+      <c r="L33" s="93">
+        <v>1</v>
+      </c>
+      <c r="M33" s="93">
+        <v>1</v>
+      </c>
+      <c r="N33" s="93">
+        <v>1</v>
+      </c>
+      <c r="O33" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="93">
+        <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O34" s="93">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="93">
+        <v>1</v>
+      </c>
+      <c r="D35" s="93">
+        <v>1</v>
+      </c>
+      <c r="E35" s="93">
+        <v>1</v>
+      </c>
+      <c r="F35" s="93">
+        <v>1</v>
+      </c>
+      <c r="G35" s="93">
+        <v>1</v>
+      </c>
+      <c r="H35" s="93">
+        <v>1</v>
+      </c>
+      <c r="I35" s="93">
+        <v>1</v>
+      </c>
+      <c r="J35" s="93">
+        <v>1</v>
+      </c>
+      <c r="K35" s="93">
+        <v>1</v>
+      </c>
+      <c r="L35" s="93">
+        <v>1</v>
+      </c>
+      <c r="M35" s="93">
+        <v>1</v>
+      </c>
+      <c r="N35" s="93">
+        <v>1</v>
+      </c>
+      <c r="O35" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="93">
+        <v>1</v>
+      </c>
+      <c r="D36" s="93">
+        <v>1</v>
+      </c>
+      <c r="E36" s="93">
+        <v>1</v>
+      </c>
+      <c r="F36" s="93">
+        <v>1</v>
+      </c>
+      <c r="G36" s="93">
+        <v>1</v>
+      </c>
+      <c r="H36" s="93">
+        <v>1</v>
+      </c>
+      <c r="I36" s="93">
+        <v>1</v>
+      </c>
+      <c r="J36" s="93">
+        <v>1</v>
+      </c>
+      <c r="K36" s="93">
+        <v>1</v>
+      </c>
+      <c r="L36" s="93">
+        <v>1</v>
+      </c>
+      <c r="M36" s="93">
+        <v>1</v>
+      </c>
+      <c r="N36" s="93">
+        <v>1</v>
+      </c>
+      <c r="O36" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="93">
+        <v>1</v>
+      </c>
+      <c r="D37" s="93">
+        <v>1</v>
+      </c>
+      <c r="E37" s="93">
+        <v>1</v>
+      </c>
+      <c r="F37" s="93">
+        <v>1</v>
+      </c>
+      <c r="G37" s="93">
+        <v>1</v>
+      </c>
+      <c r="H37" s="93">
+        <v>1</v>
+      </c>
+      <c r="I37" s="93">
+        <v>1</v>
+      </c>
+      <c r="J37" s="93">
+        <v>1</v>
+      </c>
+      <c r="K37" s="93">
+        <v>1</v>
+      </c>
+      <c r="L37" s="93">
+        <v>1</v>
+      </c>
+      <c r="M37" s="93">
+        <v>1</v>
+      </c>
+      <c r="N37" s="93">
+        <v>1</v>
+      </c>
+      <c r="O37" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="93">
+        <v>1</v>
+      </c>
+      <c r="D38" s="93">
+        <v>1</v>
+      </c>
+      <c r="E38" s="93">
+        <v>1</v>
+      </c>
+      <c r="F38" s="93">
+        <v>1</v>
+      </c>
+      <c r="G38" s="93">
+        <v>1</v>
+      </c>
+      <c r="H38" s="93">
+        <v>1</v>
+      </c>
+      <c r="I38" s="93">
+        <v>1</v>
+      </c>
+      <c r="J38" s="93">
+        <v>1</v>
+      </c>
+      <c r="K38" s="93">
+        <v>1</v>
+      </c>
+      <c r="L38" s="93">
+        <v>1</v>
+      </c>
+      <c r="M38" s="93">
+        <v>1</v>
+      </c>
+      <c r="N38" s="93">
+        <v>1</v>
+      </c>
+      <c r="O38" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="93">
+        <v>1</v>
+      </c>
+      <c r="D39" s="93">
+        <v>1</v>
+      </c>
+      <c r="E39" s="93">
+        <v>1</v>
+      </c>
+      <c r="F39" s="93">
+        <v>1</v>
+      </c>
+      <c r="G39" s="93">
+        <v>1</v>
+      </c>
+      <c r="H39" s="93">
+        <v>1</v>
+      </c>
+      <c r="I39" s="93">
+        <v>1</v>
+      </c>
+      <c r="J39" s="93">
+        <v>1</v>
+      </c>
+      <c r="K39" s="93">
+        <v>1</v>
+      </c>
+      <c r="L39" s="93">
+        <v>1</v>
+      </c>
+      <c r="M39" s="93">
+        <v>1</v>
+      </c>
+      <c r="N39" s="93">
+        <v>1</v>
+      </c>
+      <c r="O39" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
+    <sortCondition ref="B15:B22"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -18691,7 +18691,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18734,16 +18734,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18765,16 +18765,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18789,10 +18789,10 @@
   <sheetPr codeName="Sheet24">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19172,37 +19172,37 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D17" s="121">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="121">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E18" s="121">
         <v>0</v>
@@ -19219,17 +19219,14 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>63</v>
-      </c>
       <c r="B19" s="53" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D19" s="121">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="121">
         <v>0</v>
@@ -19243,13 +19240,14 @@
       <c r="H19" s="121">
         <v>0</v>
       </c>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="121">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E20" s="121">
         <v>0</v>
@@ -19263,10 +19261,11 @@
       <c r="H20" s="121">
         <v>0</v>
       </c>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>27</v>
@@ -19289,6 +19288,7 @@
       <c r="H21" s="121">
         <v>0</v>
       </c>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
@@ -19309,31 +19309,32 @@
       <c r="H22" s="121">
         <v>0</v>
       </c>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D23" s="121">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -19341,7 +19342,7 @@
         <v>268</v>
       </c>
       <c r="D24" s="121">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E24" s="121">
         <v>0</v>
@@ -19357,11 +19358,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="C25" s="53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D25" s="121">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="121">
         <v>0</v>
@@ -19377,538 +19384,624 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="53" t="s">
+      <c r="C26" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="121">
+        <v>0.19</v>
+      </c>
+      <c r="E26" s="121">
+        <v>0</v>
+      </c>
+      <c r="F26" s="121">
+        <v>0</v>
+      </c>
+      <c r="G26" s="121">
+        <v>0</v>
+      </c>
+      <c r="H26" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C27" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="121">
-        <v>1</v>
-      </c>
-      <c r="E26" s="121">
-        <v>1</v>
-      </c>
-      <c r="F26" s="121">
-        <v>1</v>
-      </c>
-      <c r="G26" s="121">
-        <v>1</v>
-      </c>
-      <c r="H26" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="121">
+        <v>0</v>
+      </c>
+      <c r="E28" s="121">
+        <v>0</v>
+      </c>
+      <c r="F28" s="121">
+        <v>0</v>
+      </c>
+      <c r="G28" s="121">
+        <v>0</v>
+      </c>
+      <c r="H28" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="121">
-        <v>0</v>
-      </c>
-      <c r="E28" s="121">
-        <v>0</v>
-      </c>
-      <c r="F28" s="121">
-        <v>0</v>
-      </c>
-      <c r="G28" s="121">
-        <v>0</v>
-      </c>
-      <c r="H28" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="53" t="s">
+      <c r="D29" s="121">
+        <v>0</v>
+      </c>
+      <c r="E29" s="121">
+        <v>0</v>
+      </c>
+      <c r="F29" s="121">
+        <v>0</v>
+      </c>
+      <c r="G29" s="121">
+        <v>0</v>
+      </c>
+      <c r="H29" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C30" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="121">
-        <v>1</v>
-      </c>
-      <c r="E29" s="121">
-        <v>1</v>
-      </c>
-      <c r="F29" s="121">
-        <v>1</v>
-      </c>
-      <c r="G29" s="121">
-        <v>1</v>
-      </c>
-      <c r="H29" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="121">
+        <v>0</v>
+      </c>
+      <c r="E31" s="121">
+        <v>0</v>
+      </c>
+      <c r="F31" s="121">
+        <v>0</v>
+      </c>
+      <c r="G31" s="121">
+        <v>0</v>
+      </c>
+      <c r="H31" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="121">
-        <v>0</v>
-      </c>
-      <c r="E31" s="121">
-        <v>0</v>
-      </c>
-      <c r="F31" s="121">
-        <v>0</v>
-      </c>
-      <c r="G31" s="121">
-        <v>0</v>
-      </c>
-      <c r="H31" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="53" t="s">
+      <c r="D32" s="121">
+        <v>0</v>
+      </c>
+      <c r="E32" s="121">
+        <v>0</v>
+      </c>
+      <c r="F32" s="121">
+        <v>0</v>
+      </c>
+      <c r="G32" s="121">
+        <v>0</v>
+      </c>
+      <c r="H32" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C33" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="121">
-        <v>1</v>
-      </c>
-      <c r="E32" s="121">
-        <v>1</v>
-      </c>
-      <c r="F32" s="121">
-        <v>1</v>
-      </c>
-      <c r="G32" s="121">
-        <v>1</v>
-      </c>
-      <c r="H32" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="121">
+        <v>0</v>
+      </c>
+      <c r="E34" s="121">
+        <v>0</v>
+      </c>
+      <c r="F34" s="121">
+        <v>0</v>
+      </c>
+      <c r="G34" s="121">
+        <v>0</v>
+      </c>
+      <c r="H34" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="121">
-        <v>0</v>
-      </c>
-      <c r="E34" s="121">
-        <v>0</v>
-      </c>
-      <c r="F34" s="121">
-        <v>0</v>
-      </c>
-      <c r="G34" s="121">
-        <v>0</v>
-      </c>
-      <c r="H34" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="53" t="s">
+      <c r="D35" s="121">
+        <v>0</v>
+      </c>
+      <c r="E35" s="121">
+        <v>0</v>
+      </c>
+      <c r="F35" s="121">
+        <v>0</v>
+      </c>
+      <c r="G35" s="121">
+        <v>0</v>
+      </c>
+      <c r="H35" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C36" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D35" s="121">
-        <v>1</v>
-      </c>
-      <c r="E35" s="121">
-        <v>1</v>
-      </c>
-      <c r="F35" s="121">
-        <v>1</v>
-      </c>
-      <c r="G35" s="121">
-        <v>1</v>
-      </c>
-      <c r="H35" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="121">
+        <v>0</v>
+      </c>
+      <c r="E37" s="121">
+        <v>0</v>
+      </c>
+      <c r="F37" s="121">
+        <v>0</v>
+      </c>
+      <c r="G37" s="121">
+        <v>0</v>
+      </c>
+      <c r="H37" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="121">
-        <v>0</v>
-      </c>
-      <c r="E37" s="121">
-        <v>0</v>
-      </c>
-      <c r="F37" s="121">
-        <v>0</v>
-      </c>
-      <c r="G37" s="121">
-        <v>0</v>
-      </c>
-      <c r="H37" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="53" t="s">
+      <c r="D38" s="121">
+        <v>0</v>
+      </c>
+      <c r="E38" s="121">
+        <v>0</v>
+      </c>
+      <c r="F38" s="121">
+        <v>0</v>
+      </c>
+      <c r="G38" s="121">
+        <v>0</v>
+      </c>
+      <c r="H38" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C39" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="E38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="F38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="G38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="H38" s="121">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="121">
+        <v>0</v>
+      </c>
+      <c r="E40" s="121">
+        <v>0</v>
+      </c>
+      <c r="F40" s="121">
+        <v>0</v>
+      </c>
+      <c r="G40" s="121">
+        <v>0</v>
+      </c>
+      <c r="H40" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="E40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="F40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="G40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="H40" s="121">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="53" t="s">
+      <c r="D41" s="121">
+        <v>0</v>
+      </c>
+      <c r="E41" s="121">
+        <v>0</v>
+      </c>
+      <c r="F41" s="121">
+        <v>0</v>
+      </c>
+      <c r="G41" s="121">
+        <v>0</v>
+      </c>
+      <c r="H41" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="121">
+      <c r="D42" s="121">
         <v>0.3</v>
       </c>
-      <c r="E41" s="121">
+      <c r="E42" s="121">
         <v>0.3</v>
       </c>
-      <c r="F41" s="121">
+      <c r="F42" s="121">
         <v>0.3</v>
       </c>
-      <c r="G41" s="121">
+      <c r="G42" s="121">
         <v>0.3</v>
       </c>
-      <c r="H41" s="121">
+      <c r="H42" s="121">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="121">
-        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="E43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="F43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="G43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="H43" s="121">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="53" t="s">
+      <c r="D44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="E44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="F44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="G44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="H44" s="121">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="E44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="F44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="G44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="H44" s="121">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="53" t="s">
+      <c r="D45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="G45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="H45" s="121">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="E45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="F45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="G45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="H45" s="121">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>267</v>
-      </c>
       <c r="D46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="E47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="F47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="G47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="H47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D48" s="121">
-        <v>0.57999999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="E48" s="121">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F48" s="121">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="121">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="H48" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
       <c r="D49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="E49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="F49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="H49" s="121">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="121">
+        <v>1</v>
+      </c>
+      <c r="E50" s="121">
+        <v>1</v>
+      </c>
+      <c r="F50" s="121">
+        <v>1</v>
+      </c>
+      <c r="G50" s="121">
+        <v>1</v>
+      </c>
+      <c r="H50" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="E51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="F51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="G51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="H51" s="121">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="121">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E52" s="121">
+        <v>0</v>
+      </c>
+      <c r="F52" s="121">
+        <v>0</v>
+      </c>
+      <c r="G52" s="121">
+        <v>0</v>
+      </c>
+      <c r="H52" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="121">
         <v>0.88</v>
       </c>
-      <c r="E49" s="121">
-        <v>0</v>
-      </c>
-      <c r="F49" s="121">
-        <v>0</v>
-      </c>
-      <c r="G49" s="121">
-        <v>0</v>
-      </c>
-      <c r="H49" s="121">
+      <c r="E53" s="121">
+        <v>0</v>
+      </c>
+      <c r="F53" s="121">
+        <v>0</v>
+      </c>
+      <c r="G53" s="121">
+        <v>0</v>
+      </c>
+      <c r="H53" s="121">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bJfjyPyxOmg6TlX60iT92X85D22oBlY+vu1d7tgcDNIGkFycV9FATVXJ9laBz2seRnELv9bqOzNsDkMZcATUsA==" saltValue="pdczIiGv+BfnP3+L1zsWWA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -21324,7 +21417,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21944,8 +22037,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/analyses/inputs/Lebanon_input.xlsx
+++ b/analyses/inputs/Lebanon_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E91EF2-51A0-40B5-9E17-53910AE1E116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B6CB97-7BED-453C-A0AE-551F3D469CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="13824" windowHeight="7176" tabRatio="961" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -94,14 +94,6 @@
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1242,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6214,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6232,42 +6224,42 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C3" s="72">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C4" s="73">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6275,7 +6267,7 @@
         <v>488922</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6283,7 +6275,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6291,7 +6283,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6299,7 +6291,7 @@
         <v>0.64993591308593812</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6307,7 +6299,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6315,7 +6307,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6323,17 +6315,17 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6341,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6349,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6357,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6365,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6374,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6390,7 +6382,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6398,7 +6390,7 @@
         <v>0.50009999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6406,7 +6398,7 @@
         <v>0.41830000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6414,18 +6406,18 @@
         <v>4.58E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6433,7 +6425,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6441,7 +6433,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6449,7 +6441,7 @@
         <v>9.3000000000000013E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6457,7 +6449,7 @@
         <v>0.48399999998509885</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6466,20 +6458,20 @@
         <v>0.99999999998509881</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6487,7 +6479,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6497,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6507,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6515,7 +6507,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6523,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6531,16 +6523,16 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6549,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6558,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6568,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6579,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6597,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6605,7 +6597,7 @@
         <v>2.8107092797299997</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6613,7 +6605,7 @@
         <v>2.8107092797299997</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6621,7 +6613,7 @@
         <v>1.86891770681</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6629,12 +6621,12 @@
         <v>1.86891770681</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6642,7 +6634,7 @@
         <v>2.0593869731800763E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6650,7 +6642,7 @@
         <v>0.54901529136625205</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6658,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6666,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6690,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6698,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6709,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6718,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6727,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6736,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6745,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6865,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6963,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6985,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7010,54 +7002,54 @@
         <v>1.86891770681</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="26" t="e">
         <f>frac_mam_1month * 2.6</f>
-        <v>9.6199994800000008E-2</v>
-      </c>
-      <c r="C3" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="26" t="e">
         <f>frac_mam_1_5months * 2.6</f>
-        <v>9.6199994800000008E-2</v>
-      </c>
-      <c r="D3" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="26" t="e">
         <f>frac_mam_6_11months * 2.6</f>
-        <v>9.6199994800000008E-2</v>
-      </c>
-      <c r="E3" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="26" t="e">
         <f>frac_mam_12_23months * 2.6</f>
-        <v>9.6199994800000008E-2</v>
-      </c>
-      <c r="F3" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="26" t="e">
         <f>frac_mam_24_59months * 2.6</f>
-        <v>9.6199994800000008E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="26" t="e">
         <f>frac_sam_1month * 2.6</f>
-        <v>7.5400002600000002E-2</v>
-      </c>
-      <c r="C4" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="26" t="e">
         <f>frac_sam_1_5months * 2.6</f>
-        <v>7.5400002600000002E-2</v>
-      </c>
-      <c r="D4" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="26" t="e">
         <f>frac_sam_6_11months * 2.6</f>
-        <v>7.5400002600000002E-2</v>
-      </c>
-      <c r="E4" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="26" t="e">
         <f>frac_sam_12_23months * 2.6</f>
-        <v>7.5400002600000002E-2</v>
-      </c>
-      <c r="F4" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="26" t="e">
         <f>frac_sam_24_59months * 2.6</f>
-        <v>7.5400002600000002E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -7077,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7090,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7137,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7184,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7228,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7272,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7316,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7360,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7404,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7448,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7492,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7536,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7580,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7624,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7668,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7712,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7756,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7800,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7816,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7863,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7908,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7952,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7996,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8040,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8084,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8128,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8172,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8188,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8236,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8280,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8325,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8369,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8413,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8429,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8476,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8520,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8564,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8608,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8652,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8697,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8741,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8785,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8829,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8890,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8902,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8949,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -9000,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9044,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9088,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9134,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9181,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9230,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9276,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9324,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9372,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9416,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9465,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9509,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9563,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9608,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9657,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9706,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9754,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9798,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9842,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9890,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9944,7 +9936,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9992,7 +9984,7 @@
         <v>0.49104999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10040,7 +10032,7 @@
         <v>0.21045</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10088,7 +10080,7 @@
         <v>0.29849999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10133,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10143,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10201,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10256,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10311,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10355,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10412,7 +10404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10456,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10501,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10545,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10589,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10633,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10657,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10672,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10707,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10724,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10741,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10758,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10775,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10794,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10813,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10832,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10851,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10868,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10885,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10902,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10919,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10938,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10957,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10978,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10995,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11014,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11033,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11052,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11071,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11092,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11111,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11128,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11145,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11162,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11181,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11198,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11217,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11234,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11251,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11270,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11289,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11308,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11327,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11346,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11365,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11382,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11420,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11435,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11470,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11499,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11528,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11557,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11586,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11615,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11636,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11657,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11678,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11699,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11720,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11739,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11758,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11794,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11802,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11828,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11854,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11876,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11898,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11922,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11943,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11964,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11987,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12008,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12029,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12052,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12073,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12094,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12117,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12138,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12159,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12182,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12215,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12236,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12257,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12280,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12301,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12322,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12345,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12366,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12387,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12410,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12431,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12452,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12475,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12496,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12517,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12540,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12573,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12594,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12615,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12638,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12659,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12680,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12703,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12724,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12745,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12768,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12789,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12810,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12833,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12854,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12875,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12901,12 +12893,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12916,6 +12902,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12933,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12943,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12963,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12973,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12990,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -13007,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13024,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13041,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13065,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13082,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13092,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13110,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13128,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13146,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13155,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13166,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13184,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13202,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13220,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13238,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13255,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13272,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13289,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13306,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13330,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13341,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13380,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13412,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13440,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13468,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13496,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13527,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13555,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13583,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13611,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13642,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13670,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13698,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13726,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13757,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13785,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13813,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13841,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13872,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13900,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13928,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13956,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13987,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14015,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14043,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14071,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14110,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14142,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14170,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14198,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14226,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14257,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14285,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14313,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14341,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14372,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14400,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14428,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14456,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14487,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14515,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14543,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14571,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14602,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14630,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14658,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14686,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14717,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14745,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14773,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14801,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14838,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14864,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14886,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14911,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14933,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14958,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14980,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15023,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15055,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15083,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15111,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15139,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15170,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15198,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15226,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15254,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15285,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15313,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15341,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15369,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15400,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15428,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15456,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15484,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15515,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15543,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15571,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15599,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15630,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15658,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15686,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15714,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15745,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15773,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15801,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15829,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15860,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15888,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15916,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15944,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15975,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -16003,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16031,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16059,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16098,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16128,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16156,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16184,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16212,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16233,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16269,13 +16261,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="92">
         <f>start_year</f>
-        <v>2020</v>
-      </c>
-      <c r="B2" s="74">
-        <v>92671.88</v>
+        <v>2019</v>
+      </c>
+      <c r="B2" s="74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" s="75">
         <v>247000</v>
@@ -16293,22 +16285,22 @@
         <f t="shared" ref="G2:G40" si="0">C2+D2+E2+F2</f>
         <v>1695000</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="22" t="e">
         <f t="shared" ref="H2:H40" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>107584.48873735034</v>
-      </c>
-      <c r="I2" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="22" t="e">
         <f>G2-H2</f>
-        <v>1587415.5112626497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
-        <v>2021</v>
-      </c>
-      <c r="B3" s="74">
-        <v>90611.926999999996</v>
+        <v>2020</v>
+      </c>
+      <c r="B3" s="74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" s="75">
         <v>232000</v>
@@ -16326,22 +16318,22 @@
         <f t="shared" si="0"/>
         <v>1676000</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>105193.05143913247</v>
-      </c>
-      <c r="I3" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="22" t="e">
         <f t="shared" ref="I3:I15" si="3">G3-H3</f>
-        <v>1570806.9485608675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
-        <v>2022</v>
-      </c>
-      <c r="B4" s="74">
-        <v>88289.5</v>
+        <v>2021</v>
+      </c>
+      <c r="B4" s="74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C4" s="75">
         <v>215000</v>
@@ -16359,19 +16351,19 @@
         <f t="shared" si="0"/>
         <v>1647000</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>102496.90325022319</v>
-      </c>
-      <c r="I4" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="22" t="e">
         <f t="shared" si="3"/>
-        <v>1544503.0967497767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="74">
         <v>85848.634999999995</v>
@@ -16401,10 +16393,10 @@
         <v>1509336.7417896949</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>2024</v>
+        <v/>
       </c>
       <c r="B6" s="74">
         <v>83426.78</v>
@@ -16434,10 +16426,10 @@
         <v>1477148.3177712224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>2025</v>
+        <v/>
       </c>
       <c r="B7" s="74">
         <v>81169.274000000005</v>
@@ -16467,10 +16459,10 @@
         <v>1440769.0979780285</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>2026</v>
+        <v/>
       </c>
       <c r="B8" s="74">
         <v>78058.998000000007</v>
@@ -16500,10 +16492,10 @@
         <v>1412379.87455116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>2027</v>
+        <v/>
       </c>
       <c r="B9" s="74">
         <v>75180.588199999998</v>
@@ -16533,10 +16525,10 @@
         <v>1387721.4733911704</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>2028</v>
+        <v/>
       </c>
       <c r="B10" s="74">
         <v>72519.372800000012</v>
@@ -16566,10 +16558,10 @@
         <v>1364810.9272603372</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>2029</v>
+        <v/>
       </c>
       <c r="B11" s="74">
         <v>70021.757400000017</v>
@@ -16599,10 +16591,10 @@
         <v>1340710.4548826485</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>2030</v>
+        <v/>
       </c>
       <c r="B12" s="74">
         <v>67638.661999999997</v>
@@ -16632,7 +16624,7 @@
         <v>1317477.0341321612</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16665,7 +16657,7 @@
         <v>1148322.1486541135</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16688,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16711,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16734,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16757,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16780,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16803,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16826,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16849,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16872,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16895,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16918,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16941,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16964,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16987,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17010,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17033,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17056,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17079,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17102,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17125,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17148,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17171,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17194,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17217,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17240,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17263,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17309,7 +17301,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17321,12 +17313,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17347,7 +17339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17367,7 +17359,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17388,12 +17380,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17413,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17433,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17453,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17461,12 +17453,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17487,16 +17479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17519,7 +17511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17540,7 +17532,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17563,13 +17555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17583,7 +17575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17619,7 +17611,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17628,7 +17620,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17646,7 +17638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17666,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17684,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17704,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17722,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17742,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17760,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17780,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17798,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17818,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17836,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17856,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17874,10 +17866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17898,7 +17890,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17906,7 +17898,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17949,12 +17941,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17998,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18042,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18086,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18130,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18174,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18218,7 +18210,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18262,7 +18254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18306,7 +18298,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18350,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18394,7 +18386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18438,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18482,13 +18474,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18532,7 +18524,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18576,7 +18568,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18620,7 +18612,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18664,16 +18656,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18694,7 +18686,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18702,7 +18694,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18721,12 +18713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18746,7 +18738,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18757,7 +18749,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18791,11 +18783,11 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18808,7 +18800,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18834,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18860,7 +18852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18880,7 +18872,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18900,7 +18892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18926,7 +18918,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18946,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18969,7 +18961,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18989,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19015,7 +19007,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19035,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19058,7 +19050,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19078,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19104,7 +19096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19125,7 +19117,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19149,7 +19141,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19170,7 +19162,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19197,7 +19189,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19218,7 +19210,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19242,7 +19234,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19263,7 +19255,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19290,7 +19282,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19311,7 +19303,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19337,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19357,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19383,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19403,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19429,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19449,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19469,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19495,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19515,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19535,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19561,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19581,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19601,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19627,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19647,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19667,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19693,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19713,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19733,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19759,7 +19751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19779,7 +19771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19799,7 +19791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19822,7 +19814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19842,7 +19834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19862,7 +19854,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19888,7 +19880,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19908,7 +19900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19934,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19954,7 +19946,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19980,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20018,7 +20010,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20027,7 +20019,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20049,7 +20041,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20073,7 +20065,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20091,7 +20083,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20115,7 +20107,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20134,7 +20126,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20158,7 +20150,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20192,24 +20184,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20230,7 +20222,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20239,7 +20231,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20256,7 +20248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20274,7 +20266,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20292,7 +20284,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20310,7 +20302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20328,7 +20320,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20346,7 +20338,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20364,7 +20356,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20382,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20400,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20418,7 +20410,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20439,17 +20431,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
-        <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
+        <v>Percentage of deaths in baseline year (2019) attributable to cause</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -20457,7 +20449,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20472,7 +20464,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20480,7 +20472,7 @@
         <v>8.8957934999999988E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20488,7 +20480,7 @@
         <v>4.7353568905821354E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20496,7 +20488,7 @@
         <v>2.4968600340071728E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20504,7 +20496,7 @@
         <v>7.2110881015796921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20512,7 +20504,7 @@
         <v>0.38686141518151551</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20520,7 +20512,7 @@
         <v>1.3002692165162427E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20528,7 +20520,7 @@
         <v>0.23377288008109898</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20536,7 +20528,7 @@
         <v>0.22602385828353033</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20547,7 +20539,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20556,7 +20548,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20577,7 +20569,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20594,7 +20586,7 @@
         <v>3.4797525427694598E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20611,7 +20603,7 @@
         <v>2.9220549327769799E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20628,7 +20620,7 @@
         <v>8.0556402977728595E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20645,7 +20637,7 @@
         <v>1.81243684498258E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20662,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20679,7 +20671,7 @@
         <v>5.97259698294446E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20696,7 +20688,7 @@
         <v>0.124044037325862</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20713,7 +20705,7 @@
         <v>0.31793571722692199</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20730,7 +20722,7 @@
         <v>0.40809619211470838</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20753,7 +20745,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20762,7 +20754,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20778,7 +20770,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20786,7 +20778,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20794,7 +20786,7 @@
         <v>5.45E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20802,7 +20794,7 @@
         <v>9.849999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20810,7 +20802,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20818,7 +20810,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20826,7 +20818,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20834,7 +20826,7 @@
         <v>0.18179999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20842,7 +20834,7 @@
         <v>0.15539999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20850,7 +20842,7 @@
         <v>0.26210000000447037</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20878,16 +20870,16 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
-        <v>Percentage of population in each category in baseline year (2020)</v>
+        <v>Percentage of population in each category in baseline year (2019)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -20908,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20918,83 +20910,83 @@
       <c r="C2" s="77">
         <v>0.66957547169811316</v>
       </c>
-      <c r="D2" s="77">
-        <v>0.66957547169811316</v>
-      </c>
-      <c r="E2" s="77">
-        <v>0.66108284023668629</v>
-      </c>
-      <c r="F2" s="77">
-        <v>0.58928385416666673</v>
-      </c>
-      <c r="G2" s="77">
-        <v>0.55774967574578471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="77">
-        <v>0.16542452830188678</v>
-      </c>
-      <c r="D3" s="77">
-        <v>0.16542452830188678</v>
-      </c>
-      <c r="E3" s="77">
-        <v>0.17391715976331359</v>
-      </c>
-      <c r="F3" s="77">
-        <v>0.24571614583333332</v>
-      </c>
-      <c r="G3" s="77">
-        <v>0.27725032425421531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="78">
-        <v>9.4440789473684214E-2</v>
-      </c>
-      <c r="D4" s="78">
-        <v>9.4440789473684214E-2</v>
-      </c>
-      <c r="E4" s="78">
-        <v>9.3677419354838698E-2</v>
-      </c>
-      <c r="F4" s="78">
-        <v>9.1745689655172394E-2</v>
-      </c>
-      <c r="G4" s="78">
-        <v>9.6130434782608715E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="78">
-        <v>7.0559210526315794E-2</v>
-      </c>
-      <c r="D5" s="78">
-        <v>7.0559210526315794E-2</v>
-      </c>
-      <c r="E5" s="78">
-        <v>7.1322580645161282E-2</v>
-      </c>
-      <c r="F5" s="78">
-        <v>7.3254310344827586E-2</v>
-      </c>
-      <c r="G5" s="78">
-        <v>6.8869565217391307E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -21002,7 +20994,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21010,90 +21002,90 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="77">
-        <v>0.79305855940765768</v>
-      </c>
-      <c r="D8" s="77">
-        <v>0.79305855940765768</v>
-      </c>
-      <c r="E8" s="77">
-        <v>0.79631463231573163</v>
-      </c>
-      <c r="F8" s="77">
-        <v>0.82002375897732183</v>
-      </c>
-      <c r="G8" s="77">
-        <v>0.82036499554215581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="77">
-        <v>0.14094144159234237</v>
-      </c>
-      <c r="D9" s="77">
-        <v>0.14094144159234237</v>
-      </c>
-      <c r="E9" s="77">
-        <v>0.13768536868426845</v>
-      </c>
-      <c r="F9" s="77">
-        <v>0.1139762420226782</v>
-      </c>
-      <c r="G9" s="77">
-        <v>0.11363500545784419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="77" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="78">
-        <v>3.6999997999999999E-2</v>
-      </c>
-      <c r="D10" s="78">
-        <v>3.6999997999999999E-2</v>
-      </c>
-      <c r="E10" s="78">
-        <v>3.6999997999999999E-2</v>
-      </c>
-      <c r="F10" s="78">
-        <v>3.6999997999999999E-2</v>
-      </c>
-      <c r="G10" s="78">
-        <v>3.6999997999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="78">
-        <v>2.9000001000000001E-2</v>
-      </c>
-      <c r="D11" s="78">
-        <v>2.9000001000000001E-2</v>
-      </c>
-      <c r="E11" s="78">
-        <v>2.9000001000000001E-2</v>
-      </c>
-      <c r="F11" s="78">
-        <v>2.9000001000000001E-2</v>
-      </c>
-      <c r="G11" s="78">
-        <v>2.9000001000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21107,7 +21099,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21151,7 +21143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21170,32 +21162,32 @@
       <c r="G14" s="79">
         <v>0.223280819125</v>
       </c>
-      <c r="H14" s="80">
-        <v>0.35200000000000004</v>
-      </c>
-      <c r="I14" s="80">
-        <v>0.35200000000000004</v>
-      </c>
-      <c r="J14" s="80">
-        <v>0.35200000000000004</v>
-      </c>
-      <c r="K14" s="80">
-        <v>0.35200000000000004</v>
-      </c>
-      <c r="L14" s="80">
-        <v>0.10387008054599998</v>
-      </c>
-      <c r="M14" s="80">
-        <v>0.18962504852200002</v>
-      </c>
-      <c r="N14" s="80">
-        <v>0.171151942168</v>
-      </c>
-      <c r="O14" s="80">
-        <v>0.1797358856115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O14" s="80" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21219,47 +21211,47 @@
         <f t="shared" si="0"/>
         <v>0.1225845839684073</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>0.19325338256092073</v>
-      </c>
-      <c r="I15" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>0.19325338256092073</v>
-      </c>
-      <c r="J15" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>0.19325338256092073</v>
-      </c>
-      <c r="K15" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>0.19325338256092073</v>
-      </c>
-      <c r="L15" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>5.7026262535198248E-2</v>
-      </c>
-      <c r="M15" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>0.10410705126464552</v>
-      </c>
-      <c r="N15" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>9.3965033397264447E-2</v>
-      </c>
-      <c r="O15" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>9.8677749607969018E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21285,16 +21277,16 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
-        <v>Percentage of children in each category in baseline year (2020)</v>
+        <v>Percentage of children in each category in baseline year (2019)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -21315,92 +21307,92 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="78">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="D2" s="78">
-        <v>0.26</v>
-      </c>
-      <c r="E2" s="78">
-        <v>0</v>
-      </c>
-      <c r="F2" s="78">
-        <v>0</v>
-      </c>
-      <c r="G2" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="78">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D3" s="78">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E3" s="78">
-        <v>0</v>
-      </c>
-      <c r="F3" s="78">
-        <v>0</v>
-      </c>
-      <c r="G3" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="78">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D4" s="78">
-        <v>0.379</v>
-      </c>
-      <c r="E4" s="78">
-        <v>0.79099999999999993</v>
-      </c>
-      <c r="F4" s="78">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="G4" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="77" t="e">
         <f>1-SUM(C2:C4)</f>
-        <v>4.9000000000000044E-2</v>
-      </c>
-      <c r="D5" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="77" t="e">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="E5" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>0.20900000000000007</v>
-      </c>
-      <c r="F5" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>0.53499999999999992</v>
-      </c>
-      <c r="G5" s="77">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="77" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -21414,19 +21406,19 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21434,122 +21426,75 @@
         <v>145</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="E1">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="F1">
-        <v>2013</v>
-      </c>
-      <c r="G1">
-        <v>2014</v>
-      </c>
-      <c r="H1">
-        <v>2015</v>
-      </c>
-      <c r="I1">
-        <v>2016</v>
-      </c>
-      <c r="J1">
-        <v>2017</v>
-      </c>
-      <c r="K1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="28">
-        <v>0.11919</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0.11706</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0.11481</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0.11262999999999999</v>
-      </c>
-      <c r="G2" s="28">
-        <v>0.11051</v>
-      </c>
-      <c r="H2" s="28">
-        <v>0.10843999999999999</v>
-      </c>
-      <c r="I2" s="28">
-        <v>0.10641</v>
-      </c>
-      <c r="J2" s="28">
-        <v>0.10444000000000001</v>
-      </c>
-      <c r="K2" s="28">
-        <v>0.10252</v>
-      </c>
-      <c r="L2">
-        <v>0.10066000000000001</v>
-      </c>
-      <c r="M2">
-        <v>9.8849999999999993E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="28">
-        <v>3.3939999999999998E-2</v>
-      </c>
-      <c r="D4" s="28">
-        <v>3.3309999999999999E-2</v>
-      </c>
-      <c r="E4" s="28">
-        <v>3.2730000000000002E-2</v>
-      </c>
-      <c r="F4" s="28">
-        <v>3.2170000000000004E-2</v>
-      </c>
-      <c r="G4" s="28">
-        <v>3.1629999999999998E-2</v>
-      </c>
-      <c r="H4" s="28">
-        <v>3.1110000000000002E-2</v>
-      </c>
-      <c r="I4" s="28">
-        <v>3.0609999999999998E-2</v>
-      </c>
-      <c r="J4" s="28">
-        <v>3.0130000000000001E-2</v>
-      </c>
-      <c r="K4" s="28">
-        <v>2.9660000000000002E-2</v>
-      </c>
-      <c r="L4">
-        <v>2.92E-2</v>
-      </c>
-      <c r="M4">
-        <v>2.8759999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21569,13 +21514,13 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="28" t="e">
         <f>'Nutritional status distribution'!H14</f>
-        <v>0.35200000000000004</v>
+        <v>#N/A</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -21586,13 +21531,13 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="28" t="e">
         <f>'Nutritional status distribution'!L14</f>
-        <v>0.10387008054599998</v>
+        <v>#N/A</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -21603,16 +21548,16 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="28" t="e">
         <f>SUM('Breastfeeding distribution'!D2)</f>
-        <v>0.26</v>
+        <v>#N/A</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -21623,13 +21568,13 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="28" t="e">
         <f>'Breastfeeding distribution'!F4</f>
-        <v>0.46500000000000002</v>
+        <v>#N/A</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -21640,7 +21585,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21648,40 +21593,24 @@
         <v>148</v>
       </c>
       <c r="C13" s="145">
+        <v>7.6219999999999999</v>
+      </c>
+      <c r="D13" s="28">
         <v>7.5540000000000003</v>
       </c>
-      <c r="D13" s="28">
+      <c r="E13" s="28">
         <v>7.2889999999999997</v>
       </c>
-      <c r="E13" s="28">
+      <c r="F13" s="28">
         <v>7.133</v>
       </c>
-      <c r="F13" s="28">
-        <v>6.8979999999999997</v>
-      </c>
-      <c r="G13" s="28">
-        <v>6.7880000000000003</v>
-      </c>
-      <c r="H13" s="28">
-        <v>6.6459999999999999</v>
-      </c>
-      <c r="I13" s="28">
-        <v>6.4589999999999996</v>
-      </c>
-      <c r="J13" s="28">
-        <v>7.577</v>
-      </c>
-      <c r="K13" s="28">
-        <v>6.0709999999999997</v>
-      </c>
-      <c r="L13">
-        <v>6.6479999999999997</v>
-      </c>
-      <c r="M13">
-        <v>6.6040000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21715,7 +21644,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21723,7 +21652,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21740,7 +21669,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21754,7 +21683,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21768,7 +21697,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21782,7 +21711,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21796,7 +21725,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21810,7 +21739,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21819,7 +21748,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21830,7 +21759,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21841,7 +21770,7 @@
       </c>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21852,7 +21781,7 @@
       </c>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21863,7 +21792,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21874,7 +21803,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21883,7 +21812,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21897,7 +21826,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21909,7 +21838,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21921,7 +21850,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21933,7 +21862,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21945,7 +21874,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21974,7 +21903,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21982,7 +21911,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21996,7 +21925,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -22010,7 +21939,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -22041,7 +21970,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -22051,13 +21980,13 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="64" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2020) coverage</v>
+        <v>Baseline (2019) coverage</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>198</v>
@@ -22069,12 +21998,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="85">
-        <v>0</v>
+      <c r="B2" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" s="85">
         <v>0.95</v>
@@ -22086,12 +22015,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="85">
-        <v>0</v>
+      <c r="B3" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" s="85">
         <v>0.95</v>
@@ -22103,7 +22032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22120,7 +22049,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22137,7 +22066,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22154,7 +22083,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22171,7 +22100,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22188,7 +22117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22205,12 +22134,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="85">
-        <v>0</v>
+      <c r="B10" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C10" s="85">
         <v>0.95</v>
@@ -22222,7 +22151,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22239,7 +22168,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22256,7 +22185,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22273,12 +22202,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="85">
-        <v>0</v>
+      <c r="B14" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C14" s="85">
         <v>0.95</v>
@@ -22290,7 +22219,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22307,12 +22236,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="85">
-        <v>0</v>
+      <c r="B16" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C16" s="85">
         <v>0.95</v>
@@ -22324,7 +22253,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22341,12 +22270,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="85">
-        <v>0</v>
+      <c r="B18" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C18" s="85">
         <v>0.95</v>
@@ -22358,12 +22287,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="85">
-        <v>0</v>
+      <c r="B19" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C19" s="85">
         <v>0.95</v>
@@ -22375,12 +22304,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="85">
-        <v>0</v>
+      <c r="B20" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C20" s="85">
         <v>0.95</v>
@@ -22392,12 +22321,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="85">
-        <v>0</v>
+      <c r="B21" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C21" s="85">
         <v>0.95</v>
@@ -22409,7 +22338,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22426,12 +22355,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="85">
-        <v>0</v>
+      <c r="B23" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C23" s="85">
         <v>0.95</v>
@@ -22443,7 +22372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22460,12 +22389,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="85">
-        <v>0</v>
+      <c r="B25" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C25" s="85">
         <v>0.95</v>
@@ -22477,7 +22406,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22494,12 +22423,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="85">
-        <v>0</v>
+      <c r="B27" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C27" s="85">
         <v>0.95</v>
@@ -22511,12 +22440,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="85">
-        <v>0.44400000000000001</v>
+      <c r="B28" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C28" s="85">
         <v>0.95</v>
@@ -22528,12 +22457,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="85">
-        <v>0</v>
+      <c r="B29" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C29" s="85">
         <v>0.95</v>
@@ -22545,12 +22474,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="85">
-        <v>0</v>
+      <c r="B30" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C30" s="85">
         <v>0.95</v>
@@ -22562,12 +22491,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="85">
-        <v>0</v>
+      <c r="B31" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C31" s="85">
         <v>0.95</v>
@@ -22579,12 +22508,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="85">
-        <v>0</v>
+      <c r="B32" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C32" s="85">
         <v>0.95</v>
@@ -22596,12 +22525,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="85">
-        <v>0.17</v>
+      <c r="B33" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C33" s="85">
         <v>0.95</v>
@@ -22613,12 +22542,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="85">
-        <v>0</v>
+      <c r="B34" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C34" s="85">
         <v>0.95</v>
@@ -22630,12 +22559,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="85">
-        <v>0.80700000000000005</v>
+      <c r="B35" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C35" s="85">
         <v>0.95</v>
@@ -22647,12 +22576,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="85">
-        <v>0.99</v>
+      <c r="B36" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C36" s="85">
         <v>0.95</v>
@@ -22664,12 +22593,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="85">
-        <v>0.77099999999999991</v>
+      <c r="B37" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C37" s="85">
         <v>0.95</v>
@@ -22682,12 +22611,12 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="85">
-        <v>0</v>
+      <c r="B38" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C38" s="85">
         <v>0.95</v>
@@ -22699,12 +22628,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="85">
-        <v>0</v>
+      <c r="B39" s="85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C39" s="85">
         <v>0.95</v>
@@ -22716,7 +22645,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="F40" s="36"/>
     </row>
   </sheetData>
